--- a/MK_Acc_02_2021.xlsx
+++ b/MK_Acc_02_2021.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2020'!$A$1:$H$1312</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021'!$A$2:$I$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021'!$E$1:$I$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet5!$A$1:$I$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">دليل!$A$1:$D$12</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="576">
   <si>
     <t>التاريخ</t>
   </si>
@@ -1563,9 +1563,6 @@
     <t>دفع قسط التيوب والعدسة المتبقي ٣٧٥٠</t>
   </si>
   <si>
-    <t>وجدي اكياس</t>
-  </si>
-  <si>
     <t xml:space="preserve">وجدي طرف محمود سوزوكي </t>
   </si>
   <si>
@@ -1738,6 +1735,45 @@
   </si>
   <si>
     <t>بيبسي</t>
+  </si>
+  <si>
+    <t>دفعه من المتبقي</t>
+  </si>
+  <si>
+    <t>جزء من التزماتي من ناجي</t>
+  </si>
+  <si>
+    <t>ناجي الكهربائي</t>
+  </si>
+  <si>
+    <t>التزامات تقفيل المحل</t>
+  </si>
+  <si>
+    <t>مصروف : إيجار شهر 4</t>
+  </si>
+  <si>
+    <t>كيبورد وماوس</t>
+  </si>
+  <si>
+    <t>اسكرين للموبايل</t>
+  </si>
+  <si>
+    <t>نضافة الأسكوتر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دفعلي ملاليم وفى الأخر يجيبلي حاجات متكسرة </t>
+  </si>
+  <si>
+    <t>واصل من وجدى 500 جنية</t>
+  </si>
+  <si>
+    <t>من المتبقى على صالح</t>
+  </si>
+  <si>
+    <t>سلف</t>
+  </si>
+  <si>
+    <t>3 فانوس K001 * 38</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1938,6 +1974,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2469,30 +2511,6 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="21" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2553,11 +2571,35 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="325">
+  <dxfs count="438">
     <dxf>
       <font>
         <color theme="7" tint="0.39994506668294322"/>
@@ -2565,26 +2607,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2626,6 +2648,979 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7001,12 +7996,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
       <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
@@ -7082,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -16669,12 +17664,12 @@
   </sheetData>
   <autoFilter ref="A1:H1312"/>
   <conditionalFormatting sqref="B1:B188 B190:B1048576">
-    <cfRule type="cellIs" dxfId="324" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="437" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="cellIs" dxfId="323" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="436" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16703,19 +17698,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11283"/>
+  <dimension ref="A1:J11284"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="135" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="154" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="82" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="142" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="134" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="87" customWidth="1"/>
     <col min="5" max="5" width="4.140625" style="85" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="78"/>
@@ -16727,66 +17722,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130">
-        <f>SUM(A3:A999997)</f>
-        <v>6445</v>
+      <c r="A1" s="149">
+        <f>SUM(A3:A999998)</f>
+        <v>7140</v>
       </c>
       <c r="B1" s="106">
-        <f>SUM(B3:B999997)</f>
-        <v>19654.5</v>
-      </c>
-      <c r="C1" s="137">
-        <f>SUM(C3:C999997)</f>
+        <f>SUM(B3:B999998)</f>
+        <v>11013.5</v>
+      </c>
+      <c r="C1" s="129">
+        <f>SUM(C3:C999998)</f>
         <v>510</v>
       </c>
       <c r="D1" s="108">
-        <f>SUM(D3:D999997)</f>
-        <v>33300</v>
-      </c>
-      <c r="E1" s="155" t="s">
+        <f>SUM(D3:D999998)</f>
+        <v>26540</v>
+      </c>
+      <c r="E1" s="147" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="151" t="s">
+      <c r="G1" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="149" t="s">
+      <c r="H1" s="141" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="139" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" s="57" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="150" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="107" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="138" t="s">
-        <v>547</v>
+      <c r="C2" s="130" t="s">
+        <v>546</v>
       </c>
       <c r="D2" s="109" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="156"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="140"/>
       <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132">
+      <c r="A3" s="151">
         <f>40*100+5*200+4*100+100+12*20+40+5*5</f>
         <v>5805</v>
       </c>
       <c r="B3" s="74"/>
-      <c r="C3" s="139"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="86"/>
       <c r="E3" s="84">
         <v>3</v>
@@ -16804,11 +17799,11 @@
       <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="133">
+      <c r="A4" s="152">
         <v>3340</v>
       </c>
       <c r="B4" s="88"/>
-      <c r="C4" s="140"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="89"/>
       <c r="E4" s="90">
         <v>3</v>
@@ -16826,9 +17821,9 @@
       <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134"/>
+      <c r="A5" s="153"/>
       <c r="B5" s="94"/>
-      <c r="C5" s="141"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="95">
         <v>2200</v>
       </c>
@@ -16850,9 +17845,9 @@
       <c r="J5" s="113"/>
     </row>
     <row r="6" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
+      <c r="A6" s="154"/>
       <c r="B6" s="82"/>
-      <c r="C6" s="142"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="87">
         <v>2200</v>
       </c>
@@ -16874,9 +17869,9 @@
       <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
+      <c r="A7" s="154"/>
       <c r="B7" s="82"/>
-      <c r="C7" s="142"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="87">
         <v>2200</v>
       </c>
@@ -16898,9 +17893,9 @@
       <c r="J7" s="114"/>
     </row>
     <row r="8" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="135"/>
+      <c r="A8" s="154"/>
       <c r="B8" s="82"/>
-      <c r="C8" s="142"/>
+      <c r="C8" s="134"/>
       <c r="D8" s="87">
         <v>2200</v>
       </c>
@@ -16922,9 +17917,9 @@
       <c r="J8" s="114"/>
     </row>
     <row r="9" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
+      <c r="A9" s="154"/>
       <c r="B9" s="82"/>
-      <c r="C9" s="142"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="87">
         <v>2200</v>
       </c>
@@ -16946,9 +17941,9 @@
       <c r="J9" s="114"/>
     </row>
     <row r="10" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="82"/>
-      <c r="C10" s="142"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="87">
         <v>2200</v>
       </c>
@@ -16970,9 +17965,9 @@
       <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
+      <c r="A11" s="154"/>
       <c r="B11" s="82"/>
-      <c r="C11" s="142"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="87">
         <v>2200</v>
       </c>
@@ -16994,9 +17989,9 @@
       <c r="J11" s="114"/>
     </row>
     <row r="12" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
+      <c r="A12" s="154"/>
       <c r="B12" s="82"/>
-      <c r="C12" s="142"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="87">
         <v>2200</v>
       </c>
@@ -17018,9 +18013,9 @@
       <c r="J12" s="114"/>
     </row>
     <row r="13" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="135"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="82"/>
-      <c r="C13" s="142"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="87">
         <v>2200</v>
       </c>
@@ -17042,9 +18037,9 @@
       <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="136"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="101"/>
-      <c r="C14" s="143"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="102">
         <v>2200</v>
       </c>
@@ -17088,8 +18083,8 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="87">
-        <f>15750-3000-5000</f>
-        <v>7750</v>
+        <f>15750-3000-5000-4000</f>
+        <v>3750</v>
       </c>
       <c r="E16" s="85">
         <v>3</v>
@@ -17128,7 +18123,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="135">
+      <c r="A18" s="154">
         <v>35</v>
       </c>
       <c r="E18" s="85">
@@ -17148,7 +18143,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="135">
+      <c r="A19" s="154">
         <v>500</v>
       </c>
       <c r="E19" s="85">
@@ -17168,7 +18163,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="135">
+      <c r="A20" s="154">
         <v>400</v>
       </c>
       <c r="E20" s="85">
@@ -17188,7 +18183,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="135">
+      <c r="A21" s="154">
         <v>816</v>
       </c>
       <c r="E21" s="85">
@@ -17208,7 +18203,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="135">
+      <c r="A22" s="154">
         <v>-6</v>
       </c>
       <c r="E22" s="85">
@@ -17228,7 +18223,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="135">
+      <c r="A23" s="154">
         <f>90*8*-1</f>
         <v>-720</v>
       </c>
@@ -17249,7 +18244,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="135">
+      <c r="A24" s="154">
         <v>-20</v>
       </c>
       <c r="E24" s="85">
@@ -17269,7 +18264,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="135">
+      <c r="A25" s="154">
         <v>-15</v>
       </c>
       <c r="E25" s="85">
@@ -17289,7 +18284,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="135">
+      <c r="A26" s="154">
         <v>-115</v>
       </c>
       <c r="E26" s="85">
@@ -17309,12 +18304,12 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="129">
+      <c r="A27" s="154">
         <f>6550-(SUM(A3:A26)-3340)</f>
         <v>-130</v>
       </c>
       <c r="B27" s="118"/>
-      <c r="C27" s="144"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="118"/>
       <c r="E27" s="119">
         <v>3</v>
@@ -17333,7 +18328,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="135">
+      <c r="A28" s="154">
         <v>160</v>
       </c>
       <c r="E28" s="85">
@@ -17353,7 +18348,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="135">
+      <c r="A29" s="154">
         <v>-200</v>
       </c>
       <c r="E29" s="85">
@@ -17373,7 +18368,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="135">
+      <c r="A30" s="154">
         <v>-2200</v>
       </c>
       <c r="E30" s="85">
@@ -17393,12 +18388,12 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="129">
+      <c r="A31" s="154">
         <f>(4150-(SUM(A3:A30)-3340))+160</f>
         <v>0</v>
       </c>
       <c r="B31" s="118"/>
-      <c r="C31" s="144"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="118"/>
       <c r="E31" s="119">
         <v>3</v>
@@ -17417,7 +18412,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="135">
+      <c r="A32" s="154">
         <v>-3500</v>
       </c>
       <c r="E32" s="85">
@@ -17437,7 +18432,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="135">
+      <c r="A33" s="154">
         <v>-200</v>
       </c>
       <c r="E33" s="85">
@@ -17457,7 +18452,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="135">
+      <c r="A34" s="154">
         <v>-200</v>
       </c>
       <c r="E34" s="85">
@@ -17477,12 +18472,12 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="129">
+      <c r="A35" s="154">
         <f>((16*20+90)-(SUM(A3:A34)-3340))</f>
         <v>0</v>
       </c>
       <c r="B35" s="118"/>
-      <c r="C35" s="144"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="118"/>
       <c r="E35" s="119">
         <v>3</v>
@@ -17501,7 +18496,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="135">
+      <c r="A36" s="154">
         <v>3000</v>
       </c>
       <c r="E36" s="85">
@@ -17521,7 +18516,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="135">
+      <c r="A37" s="154">
         <v>-2400</v>
       </c>
       <c r="E37" s="85">
@@ -17541,11 +18536,11 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="129">
+      <c r="A38" s="154">
         <v>-525</v>
       </c>
       <c r="B38" s="118"/>
-      <c r="C38" s="144"/>
+      <c r="C38" s="136"/>
       <c r="D38" s="118"/>
       <c r="E38" s="119">
         <v>3</v>
@@ -17564,7 +18559,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="135">
+      <c r="A39" s="154">
         <v>2115</v>
       </c>
       <c r="E39" s="85">
@@ -17584,12 +18579,12 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="129">
+      <c r="A40" s="154">
         <f>I40-5940</f>
         <v>7235</v>
       </c>
       <c r="B40" s="118"/>
-      <c r="C40" s="144"/>
+      <c r="C40" s="136"/>
       <c r="D40" s="118"/>
       <c r="E40" s="119">
         <v>4</v>
@@ -17609,12 +18604,12 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="129">
+      <c r="A41" s="154">
         <f>I41-13175</f>
         <v>-505</v>
       </c>
       <c r="B41" s="118"/>
-      <c r="C41" s="144"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="118"/>
       <c r="E41" s="119">
         <v>4</v>
@@ -17635,7 +18630,7 @@
       <c r="J41" s="117"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="135">
+      <c r="A42" s="154">
         <v>-750</v>
       </c>
       <c r="E42" s="85">
@@ -17655,7 +18650,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="135">
+      <c r="A43" s="154">
         <v>-5000</v>
       </c>
       <c r="E43" s="85">
@@ -17674,8 +18669,8 @@
         <v>504</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="135">
+    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="154">
         <v>500</v>
       </c>
       <c r="E44" s="85">
@@ -17688,14 +18683,14 @@
         <v>2</v>
       </c>
       <c r="H44" s="127" t="s">
+        <v>524</v>
+      </c>
+      <c r="I44" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="I44" s="80" t="s">
-        <v>506</v>
-      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="135">
+      <c r="A45" s="154">
         <v>-20</v>
       </c>
       <c r="E45" s="85">
@@ -17708,11 +18703,11 @@
         <v>121</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="135">
+      <c r="A46" s="154">
         <v>-25</v>
       </c>
       <c r="E46" s="85">
@@ -17725,11 +18720,11 @@
         <v>121</v>
       </c>
       <c r="I46" s="80" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="135">
+      <c r="A47" s="154">
         <v>-500</v>
       </c>
       <c r="E47" s="85">
@@ -17745,11 +18740,11 @@
         <v>449</v>
       </c>
       <c r="I47" s="80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="135">
+      <c r="A48" s="154">
         <v>-50</v>
       </c>
       <c r="E48" s="85">
@@ -17762,19 +18757,19 @@
         <v>121</v>
       </c>
       <c r="H48" s="127" t="s">
+        <v>509</v>
+      </c>
+      <c r="I48" s="80" t="s">
         <v>510</v>
       </c>
-      <c r="I48" s="80" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="129">
+      <c r="A49" s="154">
         <f>6235-6825</f>
         <v>-590</v>
       </c>
       <c r="B49" s="118"/>
-      <c r="C49" s="144"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="118"/>
       <c r="E49" s="119">
         <v>4</v>
@@ -17808,10 +18803,10 @@
         <v>122</v>
       </c>
       <c r="H50" s="127" t="s">
+        <v>511</v>
+      </c>
+      <c r="I50" s="80" t="s">
         <v>512</v>
-      </c>
-      <c r="I50" s="80" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -17831,7 +18826,7 @@
         <v>348</v>
       </c>
       <c r="I51" s="80" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -17851,7 +18846,7 @@
         <v>477</v>
       </c>
       <c r="I52" s="80" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -17868,16 +18863,15 @@
         <v>122</v>
       </c>
       <c r="H53" s="127" t="s">
+        <v>515</v>
+      </c>
+      <c r="I53" s="80" t="s">
         <v>516</v>
-      </c>
-      <c r="I53" s="80" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D54" s="87">
-        <f>3750-0</f>
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="E54" s="85">
         <v>4</v>
@@ -17892,7 +18886,7 @@
         <v>449</v>
       </c>
       <c r="I54" s="80" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -17916,7 +18910,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="135">
+      <c r="A56" s="154">
         <f>-100*16</f>
         <v>-1600</v>
       </c>
@@ -17933,11 +18927,11 @@
         <v>485</v>
       </c>
       <c r="I56" s="80" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="135">
+      <c r="A57" s="154">
         <v>-660</v>
       </c>
       <c r="E57" s="85">
@@ -17953,11 +18947,11 @@
         <v>483</v>
       </c>
       <c r="I57" s="80" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="135">
+      <c r="A58" s="154">
         <v>-225</v>
       </c>
       <c r="E58" s="85">
@@ -17973,16 +18967,16 @@
         <v>483</v>
       </c>
       <c r="I58" s="80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="129">
+      <c r="A59" s="154">
         <f>3935-3750</f>
         <v>185</v>
       </c>
       <c r="B59" s="118"/>
-      <c r="C59" s="144"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="118"/>
       <c r="E59" s="119">
         <v>4</v>
@@ -18015,10 +19009,10 @@
         <v>122</v>
       </c>
       <c r="H60" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="I60" s="80" t="s">
         <v>522</v>
-      </c>
-      <c r="I60" s="80" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -18036,10 +19030,10 @@
         <v>122</v>
       </c>
       <c r="H61" s="127" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -18057,10 +19051,10 @@
         <v>122</v>
       </c>
       <c r="H62" s="127" t="s">
+        <v>524</v>
+      </c>
+      <c r="I62" s="80" t="s">
         <v>525</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -18077,10 +19071,10 @@
         <v>122</v>
       </c>
       <c r="H63" s="127" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I63" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -18098,14 +19092,14 @@
         <v>122</v>
       </c>
       <c r="H64" s="127" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I64" s="80" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="135">
+      <c r="A65" s="154">
         <v>-227</v>
       </c>
       <c r="E65" s="85">
@@ -18121,7 +19115,7 @@
         <v>306</v>
       </c>
       <c r="I65" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -18141,11 +19135,11 @@
         <v>477</v>
       </c>
       <c r="I66" s="80" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="135">
+      <c r="A67" s="154">
         <v>-180</v>
       </c>
       <c r="E67" s="85">
@@ -18161,16 +19155,16 @@
         <v>306</v>
       </c>
       <c r="I67" s="80" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="129">
+      <c r="A68" s="154">
         <f>4660-3528</f>
         <v>1132</v>
       </c>
       <c r="B68" s="118"/>
-      <c r="C68" s="144"/>
+      <c r="C68" s="136"/>
       <c r="D68" s="118"/>
       <c r="E68" s="119">
         <v>4</v>
@@ -18190,7 +19184,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="135">
+      <c r="A69" s="154">
         <v>170</v>
       </c>
       <c r="E69" s="85">
@@ -18203,14 +19197,14 @@
         <v>2</v>
       </c>
       <c r="H69" s="127" t="s">
+        <v>530</v>
+      </c>
+      <c r="I69" s="80" t="s">
         <v>531</v>
       </c>
-      <c r="I69" s="80" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="135">
+      <c r="A70" s="154">
         <v>60</v>
       </c>
       <c r="E70" s="85">
@@ -18223,14 +19217,14 @@
         <v>2</v>
       </c>
       <c r="H70" s="127" t="s">
+        <v>532</v>
+      </c>
+      <c r="I70" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="I70" s="80" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="135">
+      <c r="A71" s="154">
         <v>40</v>
       </c>
       <c r="E71" s="85">
@@ -18243,14 +19237,14 @@
         <v>2</v>
       </c>
       <c r="H71" s="127" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I71" s="80" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="135">
+      <c r="A72" s="154">
         <v>-40</v>
       </c>
       <c r="E72" s="85">
@@ -18266,16 +19260,16 @@
         <v>483</v>
       </c>
       <c r="I72" s="80" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="129">
+      <c r="A73" s="154">
         <f>I73-4890</f>
         <v>-50</v>
       </c>
       <c r="B73" s="118"/>
-      <c r="C73" s="144"/>
+      <c r="C73" s="136"/>
       <c r="D73" s="118"/>
       <c r="E73" s="119">
         <v>4</v>
@@ -18295,7 +19289,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="135">
+      <c r="A74" s="154">
         <v>-45</v>
       </c>
       <c r="E74" s="85">
@@ -18311,11 +19305,11 @@
         <v>483</v>
       </c>
       <c r="I74" s="80" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="135">
+      <c r="A75" s="154">
         <v>30</v>
       </c>
       <c r="E75" s="85">
@@ -18331,11 +19325,11 @@
         <v>483</v>
       </c>
       <c r="I75" s="80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="135">
+      <c r="A76" s="154">
         <v>40</v>
       </c>
       <c r="E76" s="85">
@@ -18344,18 +19338,18 @@
       <c r="F76" s="78">
         <v>20210411</v>
       </c>
-      <c r="G76" s="145" t="s">
+      <c r="G76" s="137" t="s">
         <v>2</v>
       </c>
       <c r="H76" s="127" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I76" s="80" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="135">
+      <c r="A77" s="154">
         <v>500</v>
       </c>
       <c r="E77" s="85">
@@ -18368,19 +19362,19 @@
         <v>2</v>
       </c>
       <c r="H77" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="I77" s="80" t="s">
         <v>540</v>
       </c>
-      <c r="I77" s="80" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="135">
+      <c r="A78" s="154">
         <f>5275-5365</f>
         <v>-90</v>
       </c>
       <c r="B78" s="118"/>
-      <c r="C78" s="144"/>
+      <c r="C78" s="136"/>
       <c r="D78" s="118"/>
       <c r="E78" s="119">
         <v>4</v>
@@ -18400,7 +19394,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="135">
+      <c r="A79" s="154">
         <v>-90</v>
       </c>
       <c r="E79" s="85">
@@ -18413,14 +19407,14 @@
         <v>121</v>
       </c>
       <c r="H79" s="127" t="s">
+        <v>541</v>
+      </c>
+      <c r="I79" s="80" t="s">
         <v>542</v>
       </c>
-      <c r="I79" s="80" t="s">
-        <v>543</v>
-      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="135">
+      <c r="A80" s="154">
         <v>-45</v>
       </c>
       <c r="E80" s="85">
@@ -18440,7 +19434,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="135">
+      <c r="A81" s="154">
         <v>-25</v>
       </c>
       <c r="E81" s="85">
@@ -18456,16 +19450,16 @@
         <v>483</v>
       </c>
       <c r="I81" s="80" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="122">
+      <c r="A82" s="156">
         <f>5070-5115</f>
         <v>-45</v>
       </c>
       <c r="B82" s="118"/>
-      <c r="C82" s="144"/>
+      <c r="C82" s="136"/>
       <c r="D82" s="118"/>
       <c r="E82" s="119">
         <v>4</v>
@@ -18498,17 +19492,17 @@
         <v>122</v>
       </c>
       <c r="H83" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I83" s="80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="82">
         <v>0</v>
       </c>
-      <c r="C84" s="142">
+      <c r="C84" s="134">
         <f>6*40</f>
         <v>240</v>
       </c>
@@ -18519,17 +19513,17 @@
         <v>20210412</v>
       </c>
       <c r="G84" s="77" t="s">
+        <v>546</v>
+      </c>
+      <c r="H84" s="127" t="s">
+        <v>544</v>
+      </c>
+      <c r="I84" s="80" t="s">
         <v>547</v>
       </c>
-      <c r="H84" s="127" t="s">
-        <v>545</v>
-      </c>
-      <c r="I84" s="80" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C85" s="142">
+      <c r="C85" s="134">
         <v>250</v>
       </c>
       <c r="E85" s="85">
@@ -18539,20 +19533,20 @@
         <v>20210412</v>
       </c>
       <c r="G85" s="77" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H85" s="127" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I85" s="80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="82">
         <v>100</v>
       </c>
-      <c r="C86" s="142">
+      <c r="C86" s="134">
         <v>20</v>
       </c>
       <c r="E86" s="85">
@@ -18565,10 +19559,10 @@
         <v>122</v>
       </c>
       <c r="H86" s="127" t="s">
+        <v>548</v>
+      </c>
+      <c r="I86" s="80" t="s">
         <v>549</v>
-      </c>
-      <c r="I86" s="80" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -18586,10 +19580,10 @@
         <v>122</v>
       </c>
       <c r="H87" s="127" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I87" s="80" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -18607,10 +19601,10 @@
         <v>122</v>
       </c>
       <c r="H88" s="127" t="s">
+        <v>551</v>
+      </c>
+      <c r="I88" s="80" t="s">
         <v>552</v>
-      </c>
-      <c r="I88" s="80" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -18628,14 +19622,14 @@
         <v>122</v>
       </c>
       <c r="H89" s="127" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I89" s="80" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="135">
+      <c r="A90" s="154">
         <f>38*5</f>
         <v>190</v>
       </c>
@@ -18649,14 +19643,14 @@
         <v>2</v>
       </c>
       <c r="H90" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I90" s="80" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="135">
+      <c r="A91" s="154">
         <f>2*180</f>
         <v>360</v>
       </c>
@@ -18670,14 +19664,14 @@
         <v>2</v>
       </c>
       <c r="H91" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I91" s="80" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="135">
+      <c r="A92" s="154">
         <f>3*180</f>
         <v>540</v>
       </c>
@@ -18691,14 +19685,14 @@
         <v>2</v>
       </c>
       <c r="H92" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I92" s="80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="135">
+      <c r="A93" s="154">
         <f>1*22</f>
         <v>22</v>
       </c>
@@ -18712,14 +19706,14 @@
         <v>2</v>
       </c>
       <c r="H93" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I93" s="80" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="135">
+      <c r="A94" s="154">
         <f>1*18</f>
         <v>18</v>
       </c>
@@ -18733,14 +19727,14 @@
         <v>2</v>
       </c>
       <c r="H94" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I94" s="80" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="135">
+      <c r="A95" s="154">
         <f>9*38</f>
         <v>342</v>
       </c>
@@ -18754,14 +19748,14 @@
         <v>2</v>
       </c>
       <c r="H95" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I95" s="80" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="135">
+      <c r="A96" s="154">
         <f>1*22</f>
         <v>22</v>
       </c>
@@ -18775,14 +19769,14 @@
         <v>2</v>
       </c>
       <c r="H96" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I96" s="80" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="135">
+      <c r="A97" s="154">
         <f>1*300</f>
         <v>300</v>
       </c>
@@ -18796,14 +19790,14 @@
         <v>2</v>
       </c>
       <c r="H97" s="127" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I97" s="80" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="135">
+      <c r="A98" s="154">
         <v>-50</v>
       </c>
       <c r="E98" s="85">
@@ -18819,11 +19813,11 @@
         <v>483</v>
       </c>
       <c r="I98" s="80" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="135">
+      <c r="A99" s="154">
         <v>-5</v>
       </c>
       <c r="E99" s="85">
@@ -18839,11 +19833,11 @@
         <v>483</v>
       </c>
       <c r="I99" s="80" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="122">
+      <c r="A100" s="156">
         <f>I100-6809</f>
         <v>-49</v>
       </c>
@@ -18868,7 +19862,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="135">
+      <c r="A101" s="154">
         <v>-160</v>
       </c>
       <c r="E101" s="85">
@@ -18881,11 +19875,11 @@
         <v>121</v>
       </c>
       <c r="H101" s="127" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="135">
+      <c r="A102" s="154">
         <v>-50</v>
       </c>
       <c r="E102" s="85">
@@ -18898,11 +19892,11 @@
         <v>121</v>
       </c>
       <c r="H102" s="127" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="135">
+      <c r="A103" s="154">
         <v>-15</v>
       </c>
       <c r="E103" s="85">
@@ -18915,11 +19909,11 @@
         <v>121</v>
       </c>
       <c r="H103" s="127" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="135">
+      <c r="A104" s="154">
         <v>250</v>
       </c>
       <c r="E104" s="85">
@@ -18932,11 +19926,11 @@
         <v>2</v>
       </c>
       <c r="H104" s="127" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="122">
+      <c r="A105" s="156">
         <f>I105-6785</f>
         <v>-340</v>
       </c>
@@ -18961,72 +19955,451 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G106" s="77"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G107" s="77"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G108" s="77"/>
+      <c r="A106" s="154">
+        <v>-300</v>
+      </c>
+      <c r="E106" s="85">
+        <v>4</v>
+      </c>
+      <c r="F106" s="78">
+        <v>20210417</v>
+      </c>
+      <c r="G106" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H106" s="127" t="s">
+        <v>306</v>
+      </c>
+      <c r="I106" s="80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="154">
+        <v>-2500</v>
+      </c>
+      <c r="E107" s="85">
+        <v>4</v>
+      </c>
+      <c r="F107" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G107" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="127" t="s">
+        <v>515</v>
+      </c>
+      <c r="I107" s="80" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B108" s="82">
+        <v>-2500</v>
+      </c>
+      <c r="E108" s="85">
+        <v>4</v>
+      </c>
+      <c r="F108" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G108" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H108" s="127" t="s">
+        <v>515</v>
+      </c>
+      <c r="I108" s="80" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G109" s="77"/>
+      <c r="A109" s="154">
+        <v>-1500</v>
+      </c>
+      <c r="E109" s="85">
+        <v>4</v>
+      </c>
+      <c r="F109" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G109" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H109" s="127" t="s">
+        <v>565</v>
+      </c>
+      <c r="I109" s="80" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G110" s="77"/>
+      <c r="D110" s="87">
+        <v>4990</v>
+      </c>
+      <c r="E110" s="85">
+        <v>1</v>
+      </c>
+      <c r="F110" s="78">
+        <v>20210101</v>
+      </c>
+      <c r="G110" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="H110" s="127" t="s">
+        <v>565</v>
+      </c>
+      <c r="I110" s="80" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G111" s="77"/>
+      <c r="A111" s="154">
+        <v>-2500</v>
+      </c>
+      <c r="E111" s="85">
+        <v>4</v>
+      </c>
+      <c r="F111" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G111" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H111" s="127" t="s">
+        <v>565</v>
+      </c>
+      <c r="I111" s="80" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G112" s="77"/>
-    </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G113" s="77"/>
-    </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G114" s="77"/>
-    </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G115" s="77"/>
-    </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G116" s="77"/>
-    </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G117" s="77"/>
-    </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G118" s="77"/>
-    </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G119" s="77"/>
-    </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G120" s="77"/>
-    </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G121" s="77"/>
-    </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G122" s="77"/>
-    </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G123" s="77"/>
-    </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G124" s="77"/>
-    </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G125" s="77"/>
-    </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G126" s="77"/>
-    </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G127" s="77"/>
-    </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="D112" s="87">
+        <v>-4000</v>
+      </c>
+      <c r="E112" s="85">
+        <v>4</v>
+      </c>
+      <c r="F112" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G112" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="H112" s="127" t="s">
+        <v>565</v>
+      </c>
+      <c r="I112" s="80" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="154">
+        <v>-70</v>
+      </c>
+      <c r="E113" s="85">
+        <v>4</v>
+      </c>
+      <c r="F113" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G113" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H113" s="127" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="154">
+        <v>-2200</v>
+      </c>
+      <c r="E114" s="85">
+        <v>4</v>
+      </c>
+      <c r="F114" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G114" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H114" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="I114" s="80" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="154">
+        <v>-300</v>
+      </c>
+      <c r="E115" s="85">
+        <v>4</v>
+      </c>
+      <c r="F115" s="78">
+        <v>20210423</v>
+      </c>
+      <c r="G115" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H115" s="124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="156">
+        <f>(2925+3285)</f>
+        <v>6210</v>
+      </c>
+      <c r="B116" s="118"/>
+      <c r="C116" s="122"/>
+      <c r="D116" s="118"/>
+      <c r="E116" s="119">
+        <v>4</v>
+      </c>
+      <c r="F116" s="120">
+        <v>20210423</v>
+      </c>
+      <c r="G116" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="H116" s="128" t="s">
+        <v>306</v>
+      </c>
+      <c r="I116" s="120">
+        <f>4*200+20*100+50+6*20+23*10+17*5</f>
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="154">
+        <v>-350</v>
+      </c>
+      <c r="E117" s="85">
+        <v>4</v>
+      </c>
+      <c r="F117" s="78">
+        <v>20210425</v>
+      </c>
+      <c r="G117" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" s="127" t="s">
+        <v>306</v>
+      </c>
+      <c r="I117" s="80" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="154">
+        <v>-40</v>
+      </c>
+      <c r="E118" s="85">
+        <v>4</v>
+      </c>
+      <c r="F118" s="78">
+        <v>20210425</v>
+      </c>
+      <c r="G118" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H118" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I118" s="80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="154">
+        <v>-40</v>
+      </c>
+      <c r="E119" s="85">
+        <v>4</v>
+      </c>
+      <c r="F119" s="78">
+        <v>20210425</v>
+      </c>
+      <c r="G119" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H119" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I119" s="80" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="154">
+        <v>-20</v>
+      </c>
+      <c r="E120" s="85">
+        <v>4</v>
+      </c>
+      <c r="F120" s="78">
+        <v>20210425</v>
+      </c>
+      <c r="G120" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H120" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I120" s="80" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="154">
+        <v>-35</v>
+      </c>
+      <c r="E121" s="85">
+        <v>4</v>
+      </c>
+      <c r="F121" s="78">
+        <v>20210425</v>
+      </c>
+      <c r="G121" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H121" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I121" s="80" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="82">
+        <v>-1255</v>
+      </c>
+      <c r="E122" s="85">
+        <v>4</v>
+      </c>
+      <c r="F122" s="78">
+        <v>20210425</v>
+      </c>
+      <c r="G122" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H122" s="127" t="s">
+        <v>511</v>
+      </c>
+      <c r="I122" s="80" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B123" s="82">
+        <v>-500</v>
+      </c>
+      <c r="E123" s="85">
+        <v>4</v>
+      </c>
+      <c r="F123" s="78">
+        <v>20210406</v>
+      </c>
+      <c r="G123" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H123" s="127" t="s">
+        <v>524</v>
+      </c>
+      <c r="I123" s="80" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="82">
+        <v>-5000</v>
+      </c>
+      <c r="E124" s="85">
+        <v>4</v>
+      </c>
+      <c r="F124" s="78">
+        <v>20210426</v>
+      </c>
+      <c r="G124" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H124" s="127" t="s">
+        <v>348</v>
+      </c>
+      <c r="I124" s="80" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="82">
+        <v>500</v>
+      </c>
+      <c r="E125" s="85">
+        <v>4</v>
+      </c>
+      <c r="F125" s="78">
+        <v>20210426</v>
+      </c>
+      <c r="G125" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H125" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="I125" s="80" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="82">
+        <f>3*38</f>
+        <v>114</v>
+      </c>
+      <c r="E126" s="85">
+        <v>4</v>
+      </c>
+      <c r="F126" s="78">
+        <v>20210426</v>
+      </c>
+      <c r="G126" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H126" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="I126" s="80" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="156">
+        <f>7140-2800</f>
+        <v>4340</v>
+      </c>
+      <c r="B127" s="118"/>
+      <c r="C127" s="122"/>
+      <c r="D127" s="118"/>
+      <c r="E127" s="119">
+        <v>4</v>
+      </c>
+      <c r="F127" s="120">
+        <v>20210426</v>
+      </c>
+      <c r="G127" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="H127" s="128" t="s">
+        <v>306</v>
+      </c>
+      <c r="I127" s="120">
+        <f>26*200+16*100+8*20+10*10+16*5</f>
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G128" s="77"/>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.2">
@@ -52494,8 +53867,11 @@
     <row r="11283" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G11283" s="77"/>
     </row>
+    <row r="11284" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G11284" s="77"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I100"/>
+  <autoFilter ref="E1:I125"/>
   <mergeCells count="5">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -52504,1180 +53880,1695 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A66 A68:A75 A78">
-    <cfRule type="cellIs" dxfId="322" priority="413" operator="lessThan">
+    <cfRule type="cellIs" dxfId="435" priority="550" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G17 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G106:G1048576">
-    <cfRule type="cellIs" dxfId="321" priority="409" operator="equal">
+  <conditionalFormatting sqref="G1 G3:G17 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G107 G109:G110 G123 G128:G1048576">
+    <cfRule type="cellIs" dxfId="434" priority="546" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="547" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="548" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="549" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G21">
-    <cfRule type="cellIs" dxfId="317" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="449" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="450" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="451" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="452" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="313" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="445" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="446" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="447" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="448" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="309" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="441" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="442" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="443" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="444" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="305" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="437" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="438" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="439" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="440" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="301" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="433" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="434" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="435" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="436" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="297" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="429" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="430" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="431" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="432" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="293" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="425" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="426" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="427" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="428" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="289" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="421" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="422" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="423" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="424" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="285" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="417" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="418" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="419" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="420" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="281" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="413" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="414" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="415" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="416" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="277" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="409" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="410" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="411" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="412" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="273" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="405" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="406" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="407" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="408" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="269" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="401" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="402" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="403" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="404" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G33 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G106:G1048576">
-    <cfRule type="cellIs" dxfId="265" priority="263" operator="equal">
+  <conditionalFormatting sqref="G1:G33 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G107 G109:G110 G123 G128:G1048576">
+    <cfRule type="cellIs" dxfId="378" priority="400" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="264" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="396" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="397" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="398" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="399" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="260" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="395" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="259" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="391" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="392" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="393" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="394" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="255" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="390" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="254" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="371" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="372" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="373" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="374" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="250" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="370" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="249" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="366" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="367" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="368" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="369" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="245" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="365" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="244" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="361" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="362" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="363" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="364" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="240" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="360" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="239" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="356" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="357" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="358" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="359" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="235" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="355" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="234" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="351" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="352" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="353" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="354" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="230" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="350" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="229" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="346" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="347" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="348" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="349" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="225" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="345" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="224" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="341" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="342" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="343" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="344" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="220" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="340" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="219" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="336" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="337" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="338" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="339" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="215" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="335" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="214" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="331" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="332" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="333" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="334" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="210" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="330" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="209" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="326" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="327" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="328" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="329" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="205" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="325" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="204" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="321" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="322" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="323" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="324" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="200" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="320" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="199" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="316" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="317" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="318" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="319" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="cellIs" dxfId="195" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="315" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="194" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="311" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="312" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="313" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="314" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="190" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="310" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="189" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="306" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="307" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="308" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="309" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="cellIs" dxfId="185" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="305" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" dxfId="184" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="301" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="302" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="303" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="304" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" dxfId="180" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="300" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="179" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="296" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="297" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="298" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="299" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" dxfId="175" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="295" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="174" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="291" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="292" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="293" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="294" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="cellIs" dxfId="170" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="290" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="169" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="286" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="287" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="288" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="289" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="165" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="285" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="164" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="281" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="282" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="283" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="284" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="160" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="280" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="159" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="276" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="277" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="278" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="279" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="155" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="275" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A83 A86:A1048576">
-    <cfRule type="cellIs" dxfId="154" priority="137" operator="lessThan">
+  <conditionalFormatting sqref="A79:A83 A86:A125 A127:A1048576">
+    <cfRule type="cellIs" dxfId="267" priority="274" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="153" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="270" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="271" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="272" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="273" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="149" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="269" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="148" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="265" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="266" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="267" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="268" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="144" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="264" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A75 A78:A83 A86:A1048576">
-    <cfRule type="cellIs" dxfId="143" priority="100" operator="greaterThan">
+  <conditionalFormatting sqref="A1:A75 A78:A83 A86:A125 A127:A1048576">
+    <cfRule type="cellIs" dxfId="256" priority="237" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="126" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="263" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="141" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="259" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="260" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="261" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="262" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="137" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="258" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="136" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="254" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="255" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="256" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="257" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="132" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="253" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="131" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="249" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="250" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="251" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="252" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="127" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="248" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="126" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="244" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="245" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="246" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="247" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="122" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="243" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="cellIs" dxfId="121" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="239" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="240" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="241" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="242" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="cellIs" dxfId="117" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="238" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="cellIs" dxfId="116" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="236" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="cellIs" dxfId="112" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="232" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="cellIs" dxfId="111" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="228" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="229" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="230" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="231" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78">
-    <cfRule type="cellIs" dxfId="107" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="227" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="223" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="224" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="225" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="226" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G80">
-    <cfRule type="cellIs" dxfId="102" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="222" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="101" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="218" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="219" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="220" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="221" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="97" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="217" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="cellIs" dxfId="96" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="213" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="214" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="215" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="216" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82">
-    <cfRule type="cellIs" dxfId="92" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="212" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="cellIs" dxfId="91" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="208" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="209" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="210" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="211" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="cellIs" dxfId="87" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="207" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="86" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="206" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="85" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="204" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="205" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="cellIs" dxfId="83" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="200" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="201" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="202" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="203" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="cellIs" dxfId="79" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="199" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="78" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="198" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="77" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="190" priority="196" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="197" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="cellIs" dxfId="75" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="192" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="193" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="194" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="195" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86">
-    <cfRule type="cellIs" dxfId="71" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="191" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G86 G90:G98 G104 G106:G1048576">
-    <cfRule type="cellIs" dxfId="70" priority="53" operator="equal">
+  <conditionalFormatting sqref="G1:G86 G90:G98 G104 G107 G109:G110 G123 G128:G1048576">
+    <cfRule type="cellIs" dxfId="183" priority="190" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" dxfId="69" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="186" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="188" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="189" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="185" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="181" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="182" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="183" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="184" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="180" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="cellIs" dxfId="59" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="176" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="177" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="178" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="179" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="175" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87">
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="174" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" dxfId="53" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="171" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="172" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="173" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="169" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" dxfId="48" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="168" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="164" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="165" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="167" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="163" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="162" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="157" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="156" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="153" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="155" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="151" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="150" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:G103">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:G103">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G101:G103">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="144" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="139" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="138" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="cellIs" dxfId="126" priority="133" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="cellIs" dxfId="125" priority="132" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="cellIs" dxfId="120" priority="127" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="cellIs" dxfId="119" priority="126" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111">
+    <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="123" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="124" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111">
+    <cfRule type="cellIs" dxfId="114" priority="121" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111">
+    <cfRule type="cellIs" dxfId="113" priority="120" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="cellIs" dxfId="108" priority="115" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G113">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G113">
+    <cfRule type="cellIs" dxfId="102" priority="109" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G113">
+    <cfRule type="cellIs" dxfId="101" priority="108" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="96" priority="103" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="95" priority="102" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="cellIs" dxfId="90" priority="97" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="cellIs" dxfId="84" priority="91" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="cellIs" dxfId="83" priority="90" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="cellIs" dxfId="72" priority="79" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="cellIs" dxfId="71" priority="78" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="cellIs" dxfId="65" priority="72" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G120">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G120">
+    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G120">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
+    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
+    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>دليل!$K$2:$K$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G75</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>دليل!$K$2:$K$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>G76:G5037</xm:sqref>
+          <xm:sqref>G3:G5038</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/MK_Acc_02_2021.xlsx
+++ b/MK_Acc_02_2021.xlsx
@@ -19,11 +19,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2020'!$A$1:$H$1312</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021'!$E$1:$I$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2021'!$E$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet5!$A$1:$I$77</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">دليل!$A$1:$D$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="585">
   <si>
     <t>التاريخ</t>
   </si>
@@ -1775,12 +1775,39 @@
   <si>
     <t>3 فانوس K001 * 38</t>
   </si>
+  <si>
+    <t>فادي رد السلف اللى كان واخده يوم 20210426</t>
+  </si>
+  <si>
+    <t>سجاير + بيبسي</t>
+  </si>
+  <si>
+    <t>نضافة غطاء السيارة النيسان</t>
+  </si>
+  <si>
+    <t>أكل فى الورشه</t>
+  </si>
+  <si>
+    <t>لب</t>
+  </si>
+  <si>
+    <t>اعلان ممول عن D0010158</t>
+  </si>
+  <si>
+    <t>وقعت مني فلوس وانا راكب الأسكوتر</t>
+  </si>
+  <si>
+    <t>عيدية نيفين</t>
+  </si>
+  <si>
+    <t>ايجار شهر 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,6 +1872,21 @@
       <b/>
       <sz val="10"/>
       <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2125,7 +2167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2538,6 +2580,45 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2571,35 +2652,709 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="22" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="438">
+  <dxfs count="521">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="7" tint="0.39994506668294322"/>
@@ -7996,12 +8751,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
       <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
@@ -17664,12 +18419,12 @@
   </sheetData>
   <autoFilter ref="A1:H1312"/>
   <conditionalFormatting sqref="B1:B188 B190:B1048576">
-    <cfRule type="cellIs" dxfId="437" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="520" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B189">
-    <cfRule type="cellIs" dxfId="436" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="519" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17701,14 +18456,14 @@
   <dimension ref="A1:J11284"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="154" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="143" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="82" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="134" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="87" customWidth="1"/>
@@ -17717,18 +18472,18 @@
     <col min="7" max="7" width="10.85546875" style="79" customWidth="1"/>
     <col min="8" max="8" width="14" style="127" customWidth="1"/>
     <col min="9" max="9" width="63.7109375" style="80" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="116"/>
+    <col min="10" max="10" width="23.28515625" style="116" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149">
+      <c r="A1" s="138">
         <f>SUM(A3:A999998)</f>
-        <v>7140</v>
+        <v>4170</v>
       </c>
       <c r="B1" s="106">
         <f>SUM(B3:B999998)</f>
-        <v>11013.5</v>
+        <v>10433.5</v>
       </c>
       <c r="C1" s="129">
         <f>SUM(C3:C999998)</f>
@@ -17736,27 +18491,27 @@
       </c>
       <c r="D1" s="108">
         <f>SUM(D3:D999998)</f>
-        <v>26540</v>
-      </c>
-      <c r="E1" s="147" t="s">
+        <v>22140</v>
+      </c>
+      <c r="E1" s="160" t="s">
         <v>472</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="139" t="s">
+      <c r="I1" s="152" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" s="57" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="139" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="107" t="s">
@@ -17768,15 +18523,15 @@
       <c r="D2" s="109" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="148"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="140"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="151">
+      <c r="A3" s="140">
         <f>40*100+5*200+4*100+100+12*20+40+5*5</f>
         <v>5805</v>
       </c>
@@ -17799,7 +18554,7 @@
       <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152">
+      <c r="A4" s="141">
         <v>3340</v>
       </c>
       <c r="B4" s="88"/>
@@ -17821,7 +18576,7 @@
       <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:10" s="99" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="153"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="94"/>
       <c r="C5" s="133"/>
       <c r="D5" s="95">
@@ -17845,7 +18600,7 @@
       <c r="J5" s="113"/>
     </row>
     <row r="6" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="154"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="82"/>
       <c r="C6" s="134"/>
       <c r="D6" s="87">
@@ -17869,7 +18624,7 @@
       <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="154"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="82"/>
       <c r="C7" s="134"/>
       <c r="D7" s="87">
@@ -17893,7 +18648,7 @@
       <c r="J7" s="114"/>
     </row>
     <row r="8" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="154"/>
+      <c r="A8" s="143"/>
       <c r="B8" s="82"/>
       <c r="C8" s="134"/>
       <c r="D8" s="87">
@@ -17917,7 +18672,7 @@
       <c r="J8" s="114"/>
     </row>
     <row r="9" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="154"/>
+      <c r="A9" s="143"/>
       <c r="B9" s="82"/>
       <c r="C9" s="134"/>
       <c r="D9" s="87">
@@ -17941,7 +18696,7 @@
       <c r="J9" s="114"/>
     </row>
     <row r="10" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="154"/>
+      <c r="A10" s="143"/>
       <c r="B10" s="82"/>
       <c r="C10" s="134"/>
       <c r="D10" s="87">
@@ -17965,7 +18720,7 @@
       <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="154"/>
+      <c r="A11" s="143"/>
       <c r="B11" s="82"/>
       <c r="C11" s="134"/>
       <c r="D11" s="87">
@@ -17989,7 +18744,7 @@
       <c r="J11" s="114"/>
     </row>
     <row r="12" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="154"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="82"/>
       <c r="C12" s="134"/>
       <c r="D12" s="87">
@@ -18013,7 +18768,7 @@
       <c r="J12" s="114"/>
     </row>
     <row r="13" spans="1:10" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="154"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="82"/>
       <c r="C13" s="134"/>
       <c r="D13" s="87">
@@ -18037,7 +18792,7 @@
       <c r="J13" s="114"/>
     </row>
     <row r="14" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="155"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="101"/>
       <c r="C14" s="135"/>
       <c r="D14" s="102">
@@ -18123,7 +18878,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="154">
+      <c r="A18" s="143">
         <v>35</v>
       </c>
       <c r="E18" s="85">
@@ -18143,7 +18898,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="154">
+      <c r="A19" s="143">
         <v>500</v>
       </c>
       <c r="E19" s="85">
@@ -18163,7 +18918,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="154">
+      <c r="A20" s="143">
         <v>400</v>
       </c>
       <c r="E20" s="85">
@@ -18183,7 +18938,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="154">
+      <c r="A21" s="143">
         <v>816</v>
       </c>
       <c r="E21" s="85">
@@ -18203,7 +18958,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="154">
+      <c r="A22" s="143">
         <v>-6</v>
       </c>
       <c r="E22" s="85">
@@ -18223,7 +18978,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="154">
+      <c r="A23" s="143">
         <f>90*8*-1</f>
         <v>-720</v>
       </c>
@@ -18244,7 +18999,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="154">
+      <c r="A24" s="143">
         <v>-20</v>
       </c>
       <c r="E24" s="85">
@@ -18264,7 +19019,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="154">
+      <c r="A25" s="143">
         <v>-15</v>
       </c>
       <c r="E25" s="85">
@@ -18284,7 +19039,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="154">
+      <c r="A26" s="143">
         <v>-115</v>
       </c>
       <c r="E26" s="85">
@@ -18304,7 +19059,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="154">
+      <c r="A27" s="143">
         <f>6550-(SUM(A3:A26)-3340)</f>
         <v>-130</v>
       </c>
@@ -18321,14 +19076,14 @@
         <v>490</v>
       </c>
       <c r="H27" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I27" s="120" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="154">
+      <c r="A28" s="143">
         <v>160</v>
       </c>
       <c r="E28" s="85">
@@ -18348,7 +19103,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="154">
+      <c r="A29" s="143">
         <v>-200</v>
       </c>
       <c r="E29" s="85">
@@ -18368,7 +19123,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="154">
+      <c r="A30" s="143">
         <v>-2200</v>
       </c>
       <c r="E30" s="85">
@@ -18388,7 +19143,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="154">
+      <c r="A31" s="143">
         <f>(4150-(SUM(A3:A30)-3340))+160</f>
         <v>0</v>
       </c>
@@ -18405,14 +19160,14 @@
         <v>490</v>
       </c>
       <c r="H31" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I31" s="120" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="154">
+      <c r="A32" s="143">
         <v>-3500</v>
       </c>
       <c r="E32" s="85">
@@ -18432,7 +19187,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="154">
+      <c r="A33" s="143">
         <v>-200</v>
       </c>
       <c r="E33" s="85">
@@ -18452,7 +19207,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="154">
+      <c r="A34" s="143">
         <v>-200</v>
       </c>
       <c r="E34" s="85">
@@ -18472,7 +19227,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="154">
+      <c r="A35" s="143">
         <f>((16*20+90)-(SUM(A3:A34)-3340))</f>
         <v>0</v>
       </c>
@@ -18489,14 +19244,14 @@
         <v>490</v>
       </c>
       <c r="H35" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I35" s="120" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="154">
+      <c r="A36" s="143">
         <v>3000</v>
       </c>
       <c r="E36" s="85">
@@ -18516,7 +19271,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="154">
+      <c r="A37" s="143">
         <v>-2400</v>
       </c>
       <c r="E37" s="85">
@@ -18536,7 +19291,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="154">
+      <c r="A38" s="143">
         <v>-525</v>
       </c>
       <c r="B38" s="118"/>
@@ -18552,14 +19307,14 @@
         <v>490</v>
       </c>
       <c r="H38" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I38" s="120" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="154">
+      <c r="A39" s="143">
         <v>2115</v>
       </c>
       <c r="E39" s="85">
@@ -18579,7 +19334,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="154">
+      <c r="A40" s="143">
         <f>I40-5940</f>
         <v>7235</v>
       </c>
@@ -18596,7 +19351,7 @@
         <v>490</v>
       </c>
       <c r="H40" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I40" s="120">
         <f>13115+60</f>
@@ -18604,7 +19359,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="154">
+      <c r="A41" s="143">
         <f>I41-13175</f>
         <v>-505</v>
       </c>
@@ -18621,7 +19376,7 @@
         <v>490</v>
       </c>
       <c r="H41" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I41" s="120">
         <f>(41*200)+37*100+7*50+15*20+23*5+5</f>
@@ -18630,7 +19385,7 @@
       <c r="J41" s="117"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="154">
+      <c r="A42" s="143">
         <v>-750</v>
       </c>
       <c r="E42" s="85">
@@ -18650,7 +19405,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="154">
+      <c r="A43" s="143">
         <v>-5000</v>
       </c>
       <c r="E43" s="85">
@@ -18670,7 +19425,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="154">
+      <c r="A44" s="143">
         <v>500</v>
       </c>
       <c r="E44" s="85">
@@ -18690,7 +19445,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="154">
+      <c r="A45" s="143">
         <v>-20</v>
       </c>
       <c r="E45" s="85">
@@ -18707,7 +19462,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="154">
+      <c r="A46" s="143">
         <v>-25</v>
       </c>
       <c r="E46" s="85">
@@ -18724,7 +19479,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="154">
+      <c r="A47" s="143">
         <v>-500</v>
       </c>
       <c r="E47" s="85">
@@ -18744,7 +19499,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="154">
+      <c r="A48" s="143">
         <v>-50</v>
       </c>
       <c r="E48" s="85">
@@ -18764,7 +19519,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="154">
+      <c r="A49" s="143">
         <f>6235-6825</f>
         <v>-590</v>
       </c>
@@ -18781,7 +19536,7 @@
         <v>490</v>
       </c>
       <c r="H49" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I49" s="120">
         <f>9*200+36*100+6*50+22*20+19*5</f>
@@ -18910,7 +19665,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="154">
+      <c r="A56" s="143">
         <f>-100*16</f>
         <v>-1600</v>
       </c>
@@ -18931,7 +19686,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="154">
+      <c r="A57" s="143">
         <v>-660</v>
       </c>
       <c r="E57" s="85">
@@ -18951,7 +19706,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="154">
+      <c r="A58" s="143">
         <v>-225</v>
       </c>
       <c r="E58" s="85">
@@ -18971,7 +19726,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="154">
+      <c r="A59" s="143">
         <f>3935-3750</f>
         <v>185</v>
       </c>
@@ -18988,7 +19743,7 @@
         <v>490</v>
       </c>
       <c r="H59" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I59" s="120">
         <f>3350+23*20+23*5+10</f>
@@ -19099,7 +19854,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="154">
+      <c r="A65" s="143">
         <v>-227</v>
       </c>
       <c r="E65" s="85">
@@ -19120,7 +19875,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" s="82">
-        <v>2539.5</v>
+        <v>2559.5</v>
       </c>
       <c r="E66" s="85">
         <v>4</v>
@@ -19139,7 +19894,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="154">
+      <c r="A67" s="143">
         <v>-180</v>
       </c>
       <c r="E67" s="85">
@@ -19159,7 +19914,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="154">
+      <c r="A68" s="143">
         <f>4660-3528</f>
         <v>1132</v>
       </c>
@@ -19176,7 +19931,7 @@
         <v>490</v>
       </c>
       <c r="H68" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I68" s="120">
         <f>9*200+16*100+12*50+17*20+18*10+28*5</f>
@@ -19184,7 +19939,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="154">
+      <c r="A69" s="143">
         <v>170</v>
       </c>
       <c r="E69" s="85">
@@ -19204,7 +19959,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="154">
+      <c r="A70" s="143">
         <v>60</v>
       </c>
       <c r="E70" s="85">
@@ -19224,7 +19979,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="154">
+      <c r="A71" s="143">
         <v>40</v>
       </c>
       <c r="E71" s="85">
@@ -19244,7 +19999,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="154">
+      <c r="A72" s="143">
         <v>-40</v>
       </c>
       <c r="E72" s="85">
@@ -19264,7 +20019,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="154">
+      <c r="A73" s="143">
         <f>I73-4890</f>
         <v>-50</v>
       </c>
@@ -19281,7 +20036,7 @@
         <v>490</v>
       </c>
       <c r="H73" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I73" s="120">
         <f>22*20+20*10+30*5+9*200+16*100+13*50</f>
@@ -19289,7 +20044,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="154">
+      <c r="A74" s="143">
         <v>-45</v>
       </c>
       <c r="E74" s="85">
@@ -19309,7 +20064,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="154">
+      <c r="A75" s="143">
         <v>30</v>
       </c>
       <c r="E75" s="85">
@@ -19329,7 +20084,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="154">
+      <c r="A76" s="143">
         <v>40</v>
       </c>
       <c r="E76" s="85">
@@ -19349,7 +20104,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="154">
+      <c r="A77" s="143">
         <v>500</v>
       </c>
       <c r="E77" s="85">
@@ -19369,7 +20124,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="154">
+      <c r="A78" s="143">
         <f>5275-5365</f>
         <v>-90</v>
       </c>
@@ -19386,7 +20141,7 @@
         <v>490</v>
       </c>
       <c r="H78" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I78" s="120">
         <f>9*200+21*100+13*50+22*20+23*10+11*5</f>
@@ -19394,7 +20149,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="154">
+      <c r="A79" s="143">
         <v>-90</v>
       </c>
       <c r="E79" s="85">
@@ -19414,7 +20169,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="154">
+      <c r="A80" s="143">
         <v>-45</v>
       </c>
       <c r="E80" s="85">
@@ -19434,7 +20189,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="154">
+      <c r="A81" s="143">
         <v>-25</v>
       </c>
       <c r="E81" s="85">
@@ -19454,7 +20209,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="156">
+      <c r="A82" s="145">
         <f>5070-5115</f>
         <v>-45</v>
       </c>
@@ -19471,7 +20226,7 @@
         <v>490</v>
       </c>
       <c r="H82" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I82" s="120">
         <f>22*20+23*10+10*5+9*200+19*100+13*50</f>
@@ -19629,7 +20384,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="154">
+      <c r="A90" s="143">
         <f>38*5</f>
         <v>190</v>
       </c>
@@ -19650,7 +20405,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="154">
+      <c r="A91" s="143">
         <f>2*180</f>
         <v>360</v>
       </c>
@@ -19671,7 +20426,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="154">
+      <c r="A92" s="143">
         <f>3*180</f>
         <v>540</v>
       </c>
@@ -19692,7 +20447,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="154">
+      <c r="A93" s="143">
         <f>1*22</f>
         <v>22</v>
       </c>
@@ -19713,7 +20468,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="154">
+      <c r="A94" s="143">
         <f>1*18</f>
         <v>18</v>
       </c>
@@ -19734,7 +20489,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="154">
+      <c r="A95" s="143">
         <f>9*38</f>
         <v>342</v>
       </c>
@@ -19755,7 +20510,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="154">
+      <c r="A96" s="143">
         <f>1*22</f>
         <v>22</v>
       </c>
@@ -19776,7 +20531,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="154">
+      <c r="A97" s="143">
         <f>1*300</f>
         <v>300</v>
       </c>
@@ -19797,7 +20552,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="154">
+      <c r="A98" s="143">
         <v>-50</v>
       </c>
       <c r="E98" s="85">
@@ -19817,7 +20572,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="154">
+      <c r="A99" s="143">
         <v>-5</v>
       </c>
       <c r="E99" s="85">
@@ -19837,7 +20592,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="156">
+      <c r="A100" s="145">
         <f>I100-6809</f>
         <v>-49</v>
       </c>
@@ -19854,7 +20609,7 @@
         <v>490</v>
       </c>
       <c r="H100" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I100" s="120">
         <f>9*200+36*100+12*50+23*20+23*10+14*5</f>
@@ -19862,7 +20617,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="154">
+      <c r="A101" s="143">
         <v>-160</v>
       </c>
       <c r="E101" s="85">
@@ -19879,7 +20634,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="154">
+      <c r="A102" s="143">
         <v>-50</v>
       </c>
       <c r="E102" s="85">
@@ -19896,7 +20651,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="154">
+      <c r="A103" s="143">
         <v>-15</v>
       </c>
       <c r="E103" s="85">
@@ -19913,7 +20668,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="154">
+      <c r="A104" s="143">
         <v>250</v>
       </c>
       <c r="E104" s="85">
@@ -19930,7 +20685,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="156">
+      <c r="A105" s="145">
         <f>I105-6785</f>
         <v>-340</v>
       </c>
@@ -19947,7 +20702,7 @@
         <v>490</v>
       </c>
       <c r="H105" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I105" s="120">
         <f>8*200+36*100+12*50+22*20+15*5+11*5+75</f>
@@ -19955,7 +20710,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="154">
+      <c r="A106" s="143">
         <v>-300</v>
       </c>
       <c r="E106" s="85">
@@ -19975,7 +20730,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="154">
+      <c r="A107" s="143">
         <v>-2500</v>
       </c>
       <c r="E107" s="85">
@@ -20015,7 +20770,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="154">
+      <c r="A109" s="143">
         <v>-1500</v>
       </c>
       <c r="E109" s="85">
@@ -20055,7 +20810,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="154">
+      <c r="A111" s="143">
         <v>-2500</v>
       </c>
       <c r="E111" s="85">
@@ -20095,7 +20850,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="154">
+      <c r="A113" s="143">
         <v>-70</v>
       </c>
       <c r="E113" s="85">
@@ -20112,7 +20867,10 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="154">
+      <c r="A114" s="143">
+        <v>-2200</v>
+      </c>
+      <c r="D114" s="87">
         <v>-2200</v>
       </c>
       <c r="E114" s="85">
@@ -20132,7 +20890,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="154">
+      <c r="A115" s="143">
         <v>-300</v>
       </c>
       <c r="E115" s="85">
@@ -20149,7 +20907,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="156">
+      <c r="A116" s="145">
         <f>(2925+3285)</f>
         <v>6210</v>
       </c>
@@ -20166,7 +20924,7 @@
         <v>490</v>
       </c>
       <c r="H116" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I116" s="120">
         <f>4*200+20*100+50+6*20+23*10+17*5</f>
@@ -20174,7 +20932,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="154">
+      <c r="A117" s="143">
         <v>-350</v>
       </c>
       <c r="E117" s="85">
@@ -20194,7 +20952,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="154">
+      <c r="A118" s="143">
         <v>-40</v>
       </c>
       <c r="E118" s="85">
@@ -20214,7 +20972,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="154">
+      <c r="A119" s="143">
         <v>-40</v>
       </c>
       <c r="E119" s="85">
@@ -20234,7 +20992,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="154">
+      <c r="A120" s="143">
         <v>-20</v>
       </c>
       <c r="E120" s="85">
@@ -20254,7 +21012,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="154">
+      <c r="A121" s="143">
         <v>-35</v>
       </c>
       <c r="E121" s="85">
@@ -20375,7 +21133,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="156">
+      <c r="A127" s="145">
         <f>7140-2800</f>
         <v>4340</v>
       </c>
@@ -20392,7 +21150,7 @@
         <v>490</v>
       </c>
       <c r="H127" s="128" t="s">
-        <v>306</v>
+        <v>490</v>
       </c>
       <c r="I127" s="120">
         <f>26*200+16*100+8*20+10*10+16*5</f>
@@ -20400,54 +21158,296 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G128" s="77"/>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G129" s="77"/>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G130" s="77"/>
-    </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G131" s="77"/>
-    </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G132" s="77"/>
-    </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G133" s="77"/>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G134" s="77"/>
-    </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G135" s="77"/>
-    </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G136" s="77"/>
-    </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G137" s="77"/>
-    </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G138" s="77"/>
-    </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G139" s="77"/>
-    </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G140" s="77"/>
-    </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="82">
+        <v>-500</v>
+      </c>
+      <c r="E128" s="85">
+        <v>4</v>
+      </c>
+      <c r="F128" s="78">
+        <v>20210427</v>
+      </c>
+      <c r="G128" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H128" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="I128" s="80" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="143">
+        <v>-25</v>
+      </c>
+      <c r="E129" s="85">
+        <v>4</v>
+      </c>
+      <c r="F129" s="78">
+        <v>20210427</v>
+      </c>
+      <c r="G129" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H129" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I129" s="80" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="143">
+        <v>-25</v>
+      </c>
+      <c r="E130" s="85">
+        <v>4</v>
+      </c>
+      <c r="F130" s="78">
+        <v>20210427</v>
+      </c>
+      <c r="G130" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H130" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I130" s="80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="122">
+        <f>7960-7090</f>
+        <v>870</v>
+      </c>
+      <c r="B131" s="118"/>
+      <c r="C131" s="122"/>
+      <c r="D131" s="118"/>
+      <c r="E131" s="119">
+        <v>4</v>
+      </c>
+      <c r="F131" s="120">
+        <v>20210427</v>
+      </c>
+      <c r="G131" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="H131" s="128" t="s">
+        <v>490</v>
+      </c>
+      <c r="I131" s="120">
+        <f>28*200+20*100+50+7*20+9*10+16*5</f>
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="143">
+        <v>-25</v>
+      </c>
+      <c r="E132" s="85">
+        <v>4</v>
+      </c>
+      <c r="F132" s="78">
+        <v>20210428</v>
+      </c>
+      <c r="G132" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H132" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I132" s="80" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="143">
+        <v>-50</v>
+      </c>
+      <c r="E133" s="85">
+        <v>4</v>
+      </c>
+      <c r="F133" s="78">
+        <v>20210428</v>
+      </c>
+      <c r="G133" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H133" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I133" s="80" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="143">
+        <v>-100</v>
+      </c>
+      <c r="E134" s="85">
+        <v>4</v>
+      </c>
+      <c r="F134" s="78">
+        <v>20210428</v>
+      </c>
+      <c r="G134" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H134" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I134" s="80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="143">
+        <v>-600</v>
+      </c>
+      <c r="E135" s="85">
+        <v>4</v>
+      </c>
+      <c r="F135" s="78">
+        <v>20210428</v>
+      </c>
+      <c r="G135" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H135" s="127" t="s">
+        <v>306</v>
+      </c>
+      <c r="I135" s="80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="146">
+        <f>6630-7185</f>
+        <v>-555</v>
+      </c>
+      <c r="B136" s="147"/>
+      <c r="C136" s="146"/>
+      <c r="D136" s="147"/>
+      <c r="E136" s="148">
+        <v>4</v>
+      </c>
+      <c r="F136" s="149">
+        <v>20210429</v>
+      </c>
+      <c r="G136" s="150" t="s">
+        <v>490</v>
+      </c>
+      <c r="H136" s="128" t="s">
+        <v>490</v>
+      </c>
+      <c r="I136" s="149">
+        <f>22*200+20*100+3*20+17*10</f>
+        <v>6630</v>
+      </c>
+      <c r="J136" s="116" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="143">
+        <v>-200</v>
+      </c>
+      <c r="E137" s="85">
+        <v>4</v>
+      </c>
+      <c r="F137" s="78">
+        <v>20210501</v>
+      </c>
+      <c r="G137" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H137" s="127" t="s">
+        <v>483</v>
+      </c>
+      <c r="I137" s="80" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="143">
+        <v>-2200</v>
+      </c>
+      <c r="D138" s="87">
+        <v>-2200</v>
+      </c>
+      <c r="E138" s="85">
+        <v>4</v>
+      </c>
+      <c r="F138" s="78">
+        <v>20210501</v>
+      </c>
+      <c r="G138" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="H138" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="I138" s="80" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="122">
+        <f>I139-4230</f>
+        <v>-60</v>
+      </c>
+      <c r="B139" s="118"/>
+      <c r="C139" s="122"/>
+      <c r="D139" s="118"/>
+      <c r="E139" s="119">
+        <v>4</v>
+      </c>
+      <c r="F139" s="120">
+        <v>20210501</v>
+      </c>
+      <c r="G139" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="H139" s="128" t="s">
+        <v>490</v>
+      </c>
+      <c r="I139" s="120">
+        <f>14*200+13*100+70</f>
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="82">
+        <v>-100</v>
+      </c>
+      <c r="E140" s="85">
+        <v>4</v>
+      </c>
+      <c r="F140" s="78">
+        <v>20210427</v>
+      </c>
+      <c r="G140" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H140" s="127" t="s">
+        <v>521</v>
+      </c>
+      <c r="I140" s="80" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G141" s="77"/>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G142" s="77"/>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G143" s="77"/>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G144" s="77"/>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.2">
@@ -53871,7 +54871,7 @@
       <c r="G11284" s="77"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:I125"/>
+  <autoFilter ref="E1:I140"/>
   <mergeCells count="5">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
@@ -53880,459 +54880,776 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A66 A68:A75 A78">
-    <cfRule type="cellIs" dxfId="435" priority="550" operator="lessThan">
+    <cfRule type="cellIs" dxfId="518" priority="633" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G3:G17 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G107 G109:G110 G123 G128:G1048576">
-    <cfRule type="cellIs" dxfId="434" priority="546" operator="equal">
+  <conditionalFormatting sqref="G1 G3:G17 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G107 G109:G110 G123 G132 G137 G139 G141:G1048576">
+    <cfRule type="cellIs" dxfId="517" priority="629" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="630" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="631" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="632" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G21">
-    <cfRule type="cellIs" dxfId="430" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="532" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="533" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="534" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="535" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="426" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="528" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="529" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="530" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="531" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="422" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="524" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="525" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="526" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="527" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="418" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="520" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="521" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="522" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="523" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="414" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="516" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="517" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="518" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="519" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="410" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="512" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="513" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="514" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="515" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="406" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="508" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="509" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="510" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="511" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="402" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="504" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="505" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="506" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="507" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="cellIs" dxfId="398" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="500" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="501" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="502" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="503" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="394" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="496" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="497" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="498" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="499" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="390" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="492" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="493" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="494" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="495" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="386" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="488" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="489" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="490" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="491" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="382" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="484" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="485" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="486" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="487" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G33 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G107 G109:G110 G123 G128:G1048576">
-    <cfRule type="cellIs" dxfId="378" priority="400" operator="equal">
+  <conditionalFormatting sqref="G1:G33 G36:G37 G39 G42:G44 G49:G50 G54 G69 G72 G74 G79 G83 G90:G98 G104 G107 G109:G110 G123 G132 G137 G139 G141:G1048576">
+    <cfRule type="cellIs" dxfId="461" priority="483" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="377" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="479" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="480" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="481" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="482" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="cellIs" dxfId="373" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="478" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="372" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="474" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="475" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="476" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="477" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="368" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="473" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="367" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="454" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="455" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="456" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="457" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="cellIs" dxfId="363" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="453" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="362" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="449" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="450" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="451" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="452" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="cellIs" dxfId="358" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="448" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="357" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="444" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="445" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="446" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="447" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="353" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="443" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="352" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="439" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="440" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="441" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="442" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="348" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="438" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="347" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="434" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="435" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="436" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="437" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="343" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="433" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="342" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="429" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="430" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="431" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="432" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="338" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="428" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="337" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="424" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="425" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="426" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="427" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="333" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="423" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="332" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="419" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="420" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="421" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="422" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="328" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="418" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="327" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="414" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="415" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="416" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="417" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="323" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="413" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="322" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="409" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="410" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="411" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="412" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="cellIs" dxfId="318" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="408" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="317" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="404" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="405" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="406" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="407" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
-    <cfRule type="cellIs" dxfId="313" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="403" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="395" priority="399" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="400" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="401" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="402" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="cellIs" dxfId="391" priority="398" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="390" priority="394" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="389" priority="395" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="396" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="397" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="386" priority="393" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="385" priority="389" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="390" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="383" priority="391" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="382" priority="392" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58">
+    <cfRule type="cellIs" dxfId="381" priority="388" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="cellIs" dxfId="380" priority="384" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="379" priority="385" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="386" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="387" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="cellIs" dxfId="376" priority="383" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="375" priority="379" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="380" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="381" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="382" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60">
+    <cfRule type="cellIs" dxfId="371" priority="378" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="cellIs" dxfId="370" priority="374" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="375" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="376" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="377" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="cellIs" dxfId="366" priority="373" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="365" priority="369" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="370" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="371" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="372" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62">
+    <cfRule type="cellIs" dxfId="361" priority="368" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="cellIs" dxfId="360" priority="364" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="359" priority="365" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="366" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="367" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="cellIs" dxfId="356" priority="363" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="355" priority="359" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="360" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="361" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="362" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="351" priority="358" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79:A83 A86:A125 A127:A135 A137:A1048576">
+    <cfRule type="cellIs" dxfId="350" priority="357" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="349" priority="353" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="354" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="355" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="356" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="345" priority="352" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="344" priority="348" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="349" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="350" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="351" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="340" priority="347" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A75 A78:A83 A86:A125 A127:A135 A137:A1048576">
+    <cfRule type="cellIs" dxfId="339" priority="320" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="346" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="337" priority="342" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="343" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="344" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="345" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="cellIs" dxfId="333" priority="341" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" dxfId="332" priority="337" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="338" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="339" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="340" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" dxfId="328" priority="336" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="cellIs" dxfId="327" priority="332" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="333" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="334" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="335" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70">
+    <cfRule type="cellIs" dxfId="323" priority="331" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="cellIs" dxfId="322" priority="327" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="328" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="329" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="330" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71">
+    <cfRule type="cellIs" dxfId="318" priority="326" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="cellIs" dxfId="317" priority="322" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="323" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="324" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="325" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="cellIs" dxfId="313" priority="321" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
     <cfRule type="cellIs" dxfId="312" priority="316" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54346,12 +55663,12 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
+  <conditionalFormatting sqref="G75">
     <cfRule type="cellIs" dxfId="308" priority="315" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="G78">
     <cfRule type="cellIs" dxfId="307" priority="311" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54365,12 +55682,12 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
+  <conditionalFormatting sqref="G78">
     <cfRule type="cellIs" dxfId="303" priority="310" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="G80">
     <cfRule type="cellIs" dxfId="302" priority="306" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54384,12 +55701,12 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
+  <conditionalFormatting sqref="G80">
     <cfRule type="cellIs" dxfId="298" priority="305" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G81">
     <cfRule type="cellIs" dxfId="297" priority="301" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54403,12 +55720,12 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
+  <conditionalFormatting sqref="G81">
     <cfRule type="cellIs" dxfId="293" priority="300" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
+  <conditionalFormatting sqref="G82">
     <cfRule type="cellIs" dxfId="292" priority="296" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54422,12 +55739,12 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
+  <conditionalFormatting sqref="G82">
     <cfRule type="cellIs" dxfId="288" priority="295" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="287" priority="291" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54441,253 +55758,263 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
+  <conditionalFormatting sqref="G84">
     <cfRule type="cellIs" dxfId="283" priority="290" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="282" priority="286" operator="equal">
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="282" priority="289" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="281" priority="287" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="288" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85">
+    <cfRule type="cellIs" dxfId="279" priority="283" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="284" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="285" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="286" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
-    <cfRule type="cellIs" dxfId="278" priority="285" operator="equal">
+  <conditionalFormatting sqref="G85">
+    <cfRule type="cellIs" dxfId="275" priority="282" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="277" priority="281" operator="equal">
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="274" priority="281" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="273" priority="279" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="280" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86">
+    <cfRule type="cellIs" dxfId="271" priority="275" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="276" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="277" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="278" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
-    <cfRule type="cellIs" dxfId="273" priority="280" operator="equal">
+  <conditionalFormatting sqref="G86">
+    <cfRule type="cellIs" dxfId="267" priority="274" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="272" priority="276" operator="equal">
+  <conditionalFormatting sqref="G1:G86 G90:G98 G104 G107 G109:G110 G123 G132 G137 G139 G141:G1048576">
+    <cfRule type="cellIs" dxfId="266" priority="273" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="cellIs" dxfId="265" priority="269" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="270" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="271" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="272" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64">
-    <cfRule type="cellIs" dxfId="268" priority="275" operator="equal">
+  <conditionalFormatting sqref="G77">
+    <cfRule type="cellIs" dxfId="261" priority="268" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A83 A86:A125 A127:A1048576">
-    <cfRule type="cellIs" dxfId="267" priority="274" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="266" priority="270" operator="equal">
+  <conditionalFormatting sqref="G76">
+    <cfRule type="cellIs" dxfId="260" priority="264" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="265" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="266" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="267" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="262" priority="269" operator="equal">
+  <conditionalFormatting sqref="G76">
+    <cfRule type="cellIs" dxfId="256" priority="263" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="261" priority="265" operator="equal">
+  <conditionalFormatting sqref="G87">
+    <cfRule type="cellIs" dxfId="255" priority="259" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="260" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="261" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="262" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="257" priority="264" operator="equal">
+  <conditionalFormatting sqref="G87">
+    <cfRule type="cellIs" dxfId="251" priority="258" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A75 A78:A83 A86:A125 A127:A1048576">
-    <cfRule type="cellIs" dxfId="256" priority="237" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="263" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="G87">
+    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+      <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="254" priority="259" operator="equal">
+  <conditionalFormatting sqref="G88">
+    <cfRule type="cellIs" dxfId="249" priority="253" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="254" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="255" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="256" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="250" priority="258" operator="equal">
+  <conditionalFormatting sqref="G88">
+    <cfRule type="cellIs" dxfId="245" priority="252" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="249" priority="254" operator="equal">
+  <conditionalFormatting sqref="G88">
+    <cfRule type="cellIs" dxfId="244" priority="251" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="243" priority="247" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="248" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="249" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="250" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="245" priority="253" operator="equal">
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="239" priority="246" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="244" priority="249" operator="equal">
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="238" priority="245" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="237" priority="241" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="242" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="243" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="244" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70">
-    <cfRule type="cellIs" dxfId="240" priority="248" operator="equal">
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="233" priority="240" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="239" priority="244" operator="equal">
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="232" priority="239" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100">
+    <cfRule type="cellIs" dxfId="231" priority="235" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="236" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="237" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="238" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G71">
-    <cfRule type="cellIs" dxfId="235" priority="243" operator="equal">
+  <conditionalFormatting sqref="G100">
+    <cfRule type="cellIs" dxfId="227" priority="234" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
-    <cfRule type="cellIs" dxfId="234" priority="239" operator="equal">
+  <conditionalFormatting sqref="G100">
+    <cfRule type="cellIs" dxfId="226" priority="233" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G101:G103">
+    <cfRule type="cellIs" dxfId="225" priority="229" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="230" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="231" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="232" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
-    <cfRule type="cellIs" dxfId="230" priority="238" operator="equal">
+  <conditionalFormatting sqref="G101:G103">
+    <cfRule type="cellIs" dxfId="221" priority="228" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
-    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="236" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
+  <conditionalFormatting sqref="G101:G103">
+    <cfRule type="cellIs" dxfId="220" priority="227" operator="equal">
+      <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
-    <cfRule type="cellIs" dxfId="225" priority="232" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="cellIs" dxfId="224" priority="228" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="229" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="230" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="231" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G78">
-    <cfRule type="cellIs" dxfId="220" priority="227" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="G105">
     <cfRule type="cellIs" dxfId="219" priority="223" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54701,157 +56028,161 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="G105">
     <cfRule type="cellIs" dxfId="215" priority="222" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="214" priority="218" operator="equal">
+  <conditionalFormatting sqref="G105">
+    <cfRule type="cellIs" dxfId="214" priority="221" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="cellIs" dxfId="213" priority="217" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="218" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="219" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="220" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="210" priority="217" operator="equal">
+  <conditionalFormatting sqref="G106">
+    <cfRule type="cellIs" dxfId="209" priority="216" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="cellIs" dxfId="209" priority="213" operator="equal">
+  <conditionalFormatting sqref="G106">
+    <cfRule type="cellIs" dxfId="208" priority="215" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="cellIs" dxfId="207" priority="211" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="212" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="213" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="214" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82">
-    <cfRule type="cellIs" dxfId="205" priority="212" operator="equal">
+  <conditionalFormatting sqref="G108">
+    <cfRule type="cellIs" dxfId="203" priority="210" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="cellIs" dxfId="204" priority="208" operator="equal">
+  <conditionalFormatting sqref="G108">
+    <cfRule type="cellIs" dxfId="202" priority="209" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111">
+    <cfRule type="cellIs" dxfId="201" priority="205" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="206" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="207" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="208" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="cellIs" dxfId="200" priority="207" operator="equal">
+  <conditionalFormatting sqref="G111">
+    <cfRule type="cellIs" dxfId="197" priority="204" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="199" priority="206" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="G111">
+    <cfRule type="cellIs" dxfId="196" priority="203" operator="equal">
+      <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="198" priority="204" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="205" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G85">
-    <cfRule type="cellIs" dxfId="196" priority="200" operator="equal">
+  <conditionalFormatting sqref="G112">
+    <cfRule type="cellIs" dxfId="195" priority="199" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="200" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="201" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="202" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85">
-    <cfRule type="cellIs" dxfId="192" priority="199" operator="equal">
+  <conditionalFormatting sqref="G112">
+    <cfRule type="cellIs" dxfId="191" priority="198" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="191" priority="198" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="G112">
+    <cfRule type="cellIs" dxfId="190" priority="197" operator="equal">
+      <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="190" priority="196" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="197" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
-    <cfRule type="cellIs" dxfId="188" priority="192" operator="equal">
+  <conditionalFormatting sqref="G113">
+    <cfRule type="cellIs" dxfId="189" priority="193" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="194" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="195" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="196" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G86">
-    <cfRule type="cellIs" dxfId="184" priority="191" operator="equal">
+  <conditionalFormatting sqref="G113">
+    <cfRule type="cellIs" dxfId="185" priority="192" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G86 G90:G98 G104 G107 G109:G110 G123 G128:G1048576">
-    <cfRule type="cellIs" dxfId="183" priority="190" operator="equal">
+  <conditionalFormatting sqref="G113">
+    <cfRule type="cellIs" dxfId="184" priority="191" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" dxfId="182" priority="186" operator="equal">
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="183" priority="187" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="188" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="189" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="190" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
-    <cfRule type="cellIs" dxfId="178" priority="185" operator="equal">
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="179" priority="186" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="178" priority="185" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
     <cfRule type="cellIs" dxfId="177" priority="181" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -54865,204 +56196,204 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G76">
+  <conditionalFormatting sqref="G115">
     <cfRule type="cellIs" dxfId="173" priority="180" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87">
-    <cfRule type="cellIs" dxfId="172" priority="176" operator="equal">
+  <conditionalFormatting sqref="G115">
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="cellIs" dxfId="171" priority="175" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="176" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="177" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="178" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87">
-    <cfRule type="cellIs" dxfId="168" priority="175" operator="equal">
+  <conditionalFormatting sqref="G116">
+    <cfRule type="cellIs" dxfId="167" priority="174" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G87">
-    <cfRule type="cellIs" dxfId="167" priority="174" operator="equal">
+  <conditionalFormatting sqref="G116">
+    <cfRule type="cellIs" dxfId="166" priority="173" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="165" priority="169" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="170" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="171" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="172" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" dxfId="162" priority="169" operator="equal">
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="161" priority="168" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G88">
-    <cfRule type="cellIs" dxfId="161" priority="168" operator="equal">
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="160" priority="167" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="160" priority="164" operator="equal">
+  <conditionalFormatting sqref="G118">
+    <cfRule type="cellIs" dxfId="159" priority="163" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="164" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="165" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="166" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="156" priority="163" operator="equal">
+  <conditionalFormatting sqref="G118">
+    <cfRule type="cellIs" dxfId="155" priority="162" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="155" priority="162" operator="equal">
+  <conditionalFormatting sqref="G118">
+    <cfRule type="cellIs" dxfId="154" priority="161" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
+  <conditionalFormatting sqref="G119">
+    <cfRule type="cellIs" dxfId="153" priority="157" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="158" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="159" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="160" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="150" priority="157" operator="equal">
+  <conditionalFormatting sqref="G119">
+    <cfRule type="cellIs" dxfId="149" priority="156" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
-    <cfRule type="cellIs" dxfId="149" priority="156" operator="equal">
+  <conditionalFormatting sqref="G119">
+    <cfRule type="cellIs" dxfId="148" priority="155" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
+  <conditionalFormatting sqref="G120">
+    <cfRule type="cellIs" dxfId="147" priority="151" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="152" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="153" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="154" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="144" priority="151" operator="equal">
+  <conditionalFormatting sqref="G120">
+    <cfRule type="cellIs" dxfId="143" priority="150" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
-    <cfRule type="cellIs" dxfId="143" priority="150" operator="equal">
+  <conditionalFormatting sqref="G120">
+    <cfRule type="cellIs" dxfId="142" priority="149" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101:G103">
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+  <conditionalFormatting sqref="G121">
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="147" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101:G103">
-    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
+  <conditionalFormatting sqref="G121">
+    <cfRule type="cellIs" dxfId="137" priority="144" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101:G103">
-    <cfRule type="cellIs" dxfId="137" priority="144" operator="equal">
+  <conditionalFormatting sqref="G121">
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
-    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
+  <conditionalFormatting sqref="G122">
+    <cfRule type="cellIs" dxfId="135" priority="139" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="140" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="141" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="142" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
-    <cfRule type="cellIs" dxfId="132" priority="139" operator="equal">
+  <conditionalFormatting sqref="G122">
+    <cfRule type="cellIs" dxfId="131" priority="138" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G105">
-    <cfRule type="cellIs" dxfId="131" priority="138" operator="equal">
+  <conditionalFormatting sqref="G122">
+    <cfRule type="cellIs" dxfId="130" priority="137" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+  <conditionalFormatting sqref="G123">
+    <cfRule type="cellIs" dxfId="129" priority="133" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="134" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="135" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="136" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="cellIs" dxfId="126" priority="133" operator="equal">
+  <conditionalFormatting sqref="G123">
+    <cfRule type="cellIs" dxfId="125" priority="132" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G106">
-    <cfRule type="cellIs" dxfId="125" priority="132" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
+  <conditionalFormatting sqref="G124">
     <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -55076,17 +56407,17 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
+  <conditionalFormatting sqref="G124">
     <cfRule type="cellIs" dxfId="120" priority="127" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108">
+  <conditionalFormatting sqref="G124">
     <cfRule type="cellIs" dxfId="119" priority="126" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
+  <conditionalFormatting sqref="G124">
     <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -55100,399 +56431,397 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
+  <conditionalFormatting sqref="G124">
     <cfRule type="cellIs" dxfId="114" priority="121" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111">
-    <cfRule type="cellIs" dxfId="113" priority="120" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
-    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="118" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="119" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="120" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
-    <cfRule type="cellIs" dxfId="108" priority="115" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G112">
-    <cfRule type="cellIs" dxfId="107" priority="114" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G113">
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G113">
-    <cfRule type="cellIs" dxfId="102" priority="109" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G113">
-    <cfRule type="cellIs" dxfId="101" priority="108" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G114">
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G114">
-    <cfRule type="cellIs" dxfId="96" priority="103" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G114">
-    <cfRule type="cellIs" dxfId="95" priority="102" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="cellIs" dxfId="90" priority="97" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G115">
-    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G116">
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G116">
-    <cfRule type="cellIs" dxfId="84" priority="91" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G116">
-    <cfRule type="cellIs" dxfId="83" priority="90" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="89" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G117">
-    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118">
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118">
-    <cfRule type="cellIs" dxfId="72" priority="79" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G118">
-    <cfRule type="cellIs" dxfId="71" priority="78" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G119">
-    <cfRule type="cellIs" dxfId="65" priority="72" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="60" priority="67" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G120">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
-    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
-    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122">
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G123">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="42" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G124">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="109" priority="116" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="115" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="107" priority="111" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="112" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="113" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="114" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125">
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
-      <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
-      <formula>"ديون معدومة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
-      <formula>"متبقي"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
-      <formula>"إيراد"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
-      <formula>"مصروف"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
-      <formula>"إلتزامات مؤجلة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="110" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="104" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="cellIs" dxfId="84" priority="85" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="cellIs" dxfId="76" priority="74" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="cellIs" dxfId="66" priority="67" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="cellIs" dxfId="60" priority="58" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G131">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G131">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G131">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A136">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>"متبقي"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"إيراد"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"مصروف"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>"إلتزامات مؤجلة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"تقفيل الفترة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138">
     <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -55506,17 +56835,17 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
+  <conditionalFormatting sqref="G138">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
+  <conditionalFormatting sqref="G138">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
+  <conditionalFormatting sqref="G140">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
@@ -55530,33 +56859,33 @@
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G126">
+  <conditionalFormatting sqref="G140">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"تقفيل الفترة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="G140">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"ديون معدومة"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G140">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"متبقي"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"إيراد"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"مصروف"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"إلتزامات مؤجلة"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="G140">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"تقفيل الفترة"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G127">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"ديون معدومة"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
